--- a/4_Automation/Book1.xlsx
+++ b/4_Automation/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24795" windowHeight="5130" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24795" windowHeight="5130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Hello World!</t>
   </si>
@@ -26,12 +26,15 @@
   <si>
     <t>%</t>
   </si>
+  <si>
+    <t>Edit by Python.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -46,6 +49,14 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00FF00"/>
+      <name val="微軟雅黑"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,8 +81,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -368,17 +382,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -391,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -414,518 +444,809 @@
       <c r="B3">
         <v>100</v>
       </c>
+      <c r="C3">
+        <v>-0.99165345129788829</v>
+      </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4">
         <v>6</v>
       </c>
+      <c r="C4">
+        <v>-0.94</v>
+      </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5">
         <v>165</v>
       </c>
+      <c r="C5">
+        <v>26.5</v>
+      </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6">
         <v>724</v>
       </c>
+      <c r="C6">
+        <v>3.3878787878787877</v>
+      </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7">
         <v>162</v>
       </c>
+      <c r="C7">
+        <v>-0.77624309392265189</v>
+      </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8">
         <v>100</v>
       </c>
+      <c r="C8">
+        <v>-0.38271604938271603</v>
+      </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9">
         <v>100</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10">
         <v>24</v>
       </c>
+      <c r="C10">
+        <v>-0.76</v>
+      </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11">
         <v>100</v>
       </c>
+      <c r="C11">
+        <v>3.1666666666666665</v>
+      </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12">
         <v>100</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13">
         <v>110081</v>
       </c>
+      <c r="C13">
+        <v>1099.81</v>
+      </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14">
         <v>794</v>
       </c>
+      <c r="C14">
+        <v>-0.99278712947738479</v>
+      </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15">
         <v>100</v>
       </c>
+      <c r="C15">
+        <v>-0.87405541561712852</v>
+      </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
+      <c r="C19">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
       <c r="B20">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
+      <c r="C20">
+        <v>-0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
       <c r="B21">
         <v>74100</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
+      <c r="C21">
+        <v>1542.75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
       <c r="B22">
         <v>192</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22">
+        <v>-0.9974089068825911</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
       <c r="B23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
+      <c r="C23">
+        <v>-0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
       <c r="B24">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
       <c r="B25">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
       <c r="B26">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
+      <c r="C26">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
       <c r="B27">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="2:2">
+      <c r="C27">
+        <v>0.10714285714285714</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
       <c r="B28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:2">
+      <c r="C28">
+        <v>-0.967741935483871</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
       <c r="B29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="2:2">
+      <c r="C29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
       <c r="B30">
         <v>21002</v>
       </c>
-    </row>
-    <row r="31" spans="2:2">
+      <c r="C30">
+        <v>5249.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31">
         <v>210096</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31">
+        <v>9.0036187029806687</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
       <c r="B32">
         <v>3177</v>
       </c>
-    </row>
-    <row r="33" spans="2:2">
+      <c r="C32">
+        <v>-0.98487834132967789</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
       <c r="B33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33">
+        <v>-0.99842618822788798</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
       <c r="B34">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
       <c r="B35">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="2:2">
+      <c r="C35">
+        <v>0.85185185185185186</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
       <c r="B36">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="2:2">
+      <c r="C36">
+        <v>-0.78</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
       <c r="B37">
         <v>66</v>
       </c>
-    </row>
-    <row r="38" spans="2:2">
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
       <c r="B38">
         <v>188</v>
       </c>
-    </row>
-    <row r="39" spans="2:2">
+      <c r="C38">
+        <v>1.8484848484848484</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
       <c r="B39">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="2:2">
+      <c r="C39">
+        <v>-0.89893617021276595</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
       <c r="B40">
         <v>411006</v>
       </c>
-    </row>
-    <row r="41" spans="2:2">
+      <c r="C40">
+        <v>21630.894736842107</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
       <c r="B41">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:2">
+      <c r="C41">
+        <v>-0.99975669454947125</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
       <c r="B42">
         <v>446100</v>
       </c>
-    </row>
-    <row r="43" spans="2:2">
+      <c r="C42">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
       <c r="B43">
         <v>75</v>
       </c>
-    </row>
-    <row r="44" spans="2:2">
+      <c r="C43">
+        <v>-0.99983187626092807</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
       <c r="B44">
         <v>195</v>
       </c>
-    </row>
-    <row r="45" spans="2:2">
+      <c r="C44">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
       <c r="B45">
         <v>27100</v>
       </c>
-    </row>
-    <row r="46" spans="2:2">
+      <c r="C45">
+        <v>137.97435897435898</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
       <c r="B46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="2:2">
+      <c r="C46">
+        <v>-0.99996309963099628</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
       <c r="B47">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:2">
+      <c r="C47">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
       <c r="B48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="2:2">
+      <c r="C48">
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
       <c r="B49">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="2:2">
+      <c r="C49">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
       <c r="B50">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="2:2">
+      <c r="C50">
+        <v>-0.94</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
       <c r="B51">
         <v>4736</v>
       </c>
-    </row>
-    <row r="52" spans="2:2">
+      <c r="C51">
+        <v>788.33333333333337</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
       <c r="B52">
         <v>21004</v>
       </c>
-    </row>
-    <row r="53" spans="2:2">
+      <c r="C52">
+        <v>3.4349662162162162</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
       <c r="B53">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="2:2">
+      <c r="C53">
+        <v>-0.999761950104742</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
       <c r="B54">
         <v>11009</v>
       </c>
-    </row>
-    <row r="55" spans="2:2">
+      <c r="C54">
+        <v>2200.8000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
       <c r="B55">
         <v>757</v>
       </c>
-    </row>
-    <row r="56" spans="2:2">
+      <c r="C55">
+        <v>-0.93123807793623403</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
       <c r="B56">
         <v>1100</v>
       </c>
-    </row>
-    <row r="57" spans="2:2">
+      <c r="C56">
+        <v>0.45310435931307796</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
       <c r="B57">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="2:2">
+      <c r="C57">
+        <v>-0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
       <c r="B58">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="2:2">
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
       <c r="B59">
         <v>110085</v>
       </c>
-    </row>
-    <row r="60" spans="2:2">
+      <c r="C59">
+        <v>1099.8499999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
       <c r="B60">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="2:2">
+      <c r="C60">
+        <v>-0.99997274833083527</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
       <c r="B61">
         <v>45</v>
       </c>
-    </row>
-    <row r="62" spans="2:2">
+      <c r="C61">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
       <c r="B62">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="2:2">
+      <c r="C62">
+        <v>1.2222222222222223</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
       <c r="B63">
         <v>100</v>
       </c>
-    </row>
-    <row r="64" spans="2:2">
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
       <c r="B64">
         <v>100</v>
       </c>
-    </row>
-    <row r="65" spans="2:2">
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
       <c r="B65">
         <v>19</v>
       </c>
-    </row>
-    <row r="66" spans="2:2">
+      <c r="C65">
+        <v>-0.81</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
       <c r="B66">
         <v>265</v>
       </c>
-    </row>
-    <row r="67" spans="2:2">
+      <c r="C66">
+        <v>12.947368421052632</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
       <c r="B67">
         <v>100</v>
       </c>
-    </row>
-    <row r="68" spans="2:2">
+      <c r="C67">
+        <v>-0.62264150943396224</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
       <c r="B68">
         <v>100</v>
       </c>
-    </row>
-    <row r="69" spans="2:2">
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
       <c r="B69">
         <v>332</v>
       </c>
-    </row>
-    <row r="70" spans="2:2">
+      <c r="C69">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
       <c r="B70">
         <v>1100</v>
       </c>
-    </row>
-    <row r="71" spans="2:2">
+      <c r="C70">
+        <v>2.3132530120481927</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
       <c r="B71">
         <v>1100</v>
       </c>
-    </row>
-    <row r="72" spans="2:2">
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
       <c r="B72">
         <v>1427</v>
       </c>
-    </row>
-    <row r="73" spans="2:2">
+      <c r="C72">
+        <v>0.2972727272727273</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
       <c r="B73">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="2:2">
+      <c r="C73">
+        <v>-0.99859845830413452</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
       <c r="B74">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="2:2">
+      <c r="C74">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
       <c r="B75">
         <v>84</v>
       </c>
-    </row>
-    <row r="76" spans="2:2">
+      <c r="C75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
       <c r="B76">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="2:2">
+      <c r="C76">
+        <v>0.19047619047619047</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
       <c r="B77">
         <v>89</v>
       </c>
-    </row>
-    <row r="78" spans="2:2">
+      <c r="C77">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
       <c r="B78">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="2:2">
+      <c r="C78">
+        <v>0.12359550561797752</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
       <c r="B79">
         <v>100</v>
       </c>
-    </row>
-    <row r="80" spans="2:2">
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
       <c r="B80">
         <v>100</v>
       </c>
-    </row>
-    <row r="81" spans="2:2">
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
       <c r="B81">
         <v>100</v>
       </c>
-    </row>
-    <row r="82" spans="2:2">
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
       <c r="B82">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="2:2">
+      <c r="C82">
+        <v>-0.89</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
       <c r="B83">
         <v>86</v>
       </c>
-    </row>
-    <row r="84" spans="2:2">
+      <c r="C83">
+        <v>6.8181818181818183</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
       <c r="B84">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="2:2">
+      <c r="C84">
+        <v>-0.95348837209302328</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
       <c r="B85">
         <v>11</v>
       </c>
-    </row>
-    <row r="86" spans="2:2">
+      <c r="C85">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
       <c r="B86">
         <v>112</v>
       </c>
-    </row>
-    <row r="87" spans="2:2">
+      <c r="C86">
+        <v>9.1818181818181817</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
       <c r="B87">
         <v>42</v>
       </c>
-    </row>
-    <row r="88" spans="2:2">
+      <c r="C87">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
       <c r="B88">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="2:2">
+      <c r="C88">
+        <v>-0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
       <c r="B89">
         <v>44</v>
       </c>
-    </row>
-    <row r="90" spans="2:2">
+      <c r="C89">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
       <c r="B90">
         <v>245</v>
       </c>
-    </row>
-    <row r="91" spans="2:2">
+      <c r="C90">
+        <v>4.5681818181818183</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
       <c r="B91">
         <v>251</v>
       </c>
-    </row>
-    <row r="92" spans="2:2">
+      <c r="C91">
+        <v>2.4489795918367346E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
       <c r="B92">
         <v>251</v>
       </c>
-    </row>
-    <row r="93" spans="2:2">
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
       <c r="B93">
         <v>100</v>
       </c>
-    </row>
-    <row r="94" spans="2:2">
+      <c r="C93">
+        <v>-0.60159362549800799</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
       <c r="B94">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="2:2">
+      <c r="C94">
+        <v>-0.96</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
       <c r="B95">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="2:2">
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
       <c r="B96">
         <v>255</v>
       </c>
-    </row>
-    <row r="97" spans="2:2">
+      <c r="C96">
+        <v>62.75</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
       <c r="B97">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="2:2">
+      <c r="C97">
+        <v>-0.99215686274509807</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
       <c r="B98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="2:2">
+      <c r="C98">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
       <c r="B99">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="2:2">
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
       <c r="B100">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="2:3">
       <c r="B101">
         <v>1112</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="2:3">
       <c r="B102">
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="2:3">
       <c r="B103">
         <v>935</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="2:3">
       <c r="B104">
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="2:3">
       <c r="B105">
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="2:3">
       <c r="B106">
         <v>2132</v>
       </c>

--- a/4_Automation/Book1.xlsx
+++ b/4_Automation/Book1.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24795" windowHeight="5130"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24795" windowHeight="5130" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -384,7 +386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1268,4 +1270,34 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/4_Automation/Book1.xlsx
+++ b/4_Automation/Book1.xlsx
@@ -10,23 +10,40 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
-  <si>
-    <t>$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>col1</t>
+  </si>
+  <si>
+    <t>col2</t>
+  </si>
+  <si>
+    <t>col3</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,14 +102,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -102,6 +122,92 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="MyPlot" descr="xlwings_plot.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705225" y="952500"/>
+          <a:ext cx="3657600" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="MyPlot" descr="xlwings_plot.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="838200"/>
+          <a:ext cx="5248275" cy="3257550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,39 +495,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C317"/>
+  <sheetPr>
+    <tabColor rgb="FFFFA500"/>
+  </sheetPr>
+  <dimension ref="B1:H317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31:I32"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:8">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="2:8">
       <c r="B2">
         <v>514</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3">
         <v>505</v>
       </c>
       <c r="C3" s="1">
-        <v>-1.7509727626459144E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
+        <v>-1.7509727626459141E-2</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4">
         <v>943</v>
       </c>
@@ -429,7 +546,7 @@
         <v>0.86732673267326732</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:8">
       <c r="B5">
         <v>288</v>
       </c>
@@ -437,39 +554,39 @@
         <v>-0.69459172852598094</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:8">
       <c r="B6">
         <v>1064</v>
       </c>
       <c r="C6" s="2">
-        <v>2.6944444444444446</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
+        <v>2.6944444444444451</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7">
         <v>1047</v>
       </c>
       <c r="C7" s="1">
-        <v>-1.5977443609022556E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
+        <v>-1.5977443609022559E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8">
         <v>1020</v>
       </c>
       <c r="C8" s="1">
-        <v>-2.5787965616045846E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
+        <v>-2.5787965616045849E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9">
         <v>712</v>
       </c>
       <c r="C9" s="1">
-        <v>-0.30196078431372547</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
+        <v>-0.30196078431372553</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10">
         <v>290</v>
       </c>
@@ -477,15 +594,15 @@
         <v>-0.59269662921348309</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:8">
       <c r="B11">
         <v>243</v>
       </c>
       <c r="C11" s="1">
-        <v>-0.16206896551724137</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
+        <v>-0.1620689655172414</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12">
         <v>895</v>
       </c>
@@ -493,7 +610,7 @@
         <v>2.6831275720164611</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:8">
       <c r="B13">
         <v>928</v>
       </c>
@@ -501,28 +618,28 @@
         <v>3.6871508379888271E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:8">
       <c r="B14">
         <v>730</v>
       </c>
       <c r="C14" s="1">
-        <v>-0.21336206896551724</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
+        <v>-0.21336206896551721</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15">
         <v>572</v>
       </c>
       <c r="C15" s="1">
-        <v>-0.21643835616438356</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
+        <v>-0.21643835616438359</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16">
         <v>305</v>
       </c>
       <c r="C16" s="1">
-        <v>-0.46678321678321677</v>
+        <v>-0.46678321678321683</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -530,7 +647,7 @@
         <v>839</v>
       </c>
       <c r="C17" s="2">
-        <v>1.7508196721311475</v>
+        <v>1.750819672131148</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -538,7 +655,7 @@
         <v>961</v>
       </c>
       <c r="C18" s="2">
-        <v>0.14541120381406436</v>
+        <v>0.14541120381406439</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -586,7 +703,7 @@
         <v>517</v>
       </c>
       <c r="C24" s="1">
-        <v>-0.49363369245837413</v>
+        <v>-0.49363369245837407</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -610,7 +727,7 @@
         <v>862</v>
       </c>
       <c r="C27" s="2">
-        <v>2.7155172413793105</v>
+        <v>2.7155172413793101</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -634,7 +751,7 @@
         <v>969</v>
       </c>
       <c r="C30" s="2">
-        <v>0.26007802340702213</v>
+        <v>0.26007802340702207</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -658,7 +775,7 @@
         <v>543</v>
       </c>
       <c r="C33" s="1">
-        <v>-0.49815157116451014</v>
+        <v>-0.49815157116451009</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -674,7 +791,7 @@
         <v>509</v>
       </c>
       <c r="C35" s="1">
-        <v>-0.13582342954159593</v>
+        <v>-0.1358234295415959</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -682,7 +799,7 @@
         <v>428</v>
       </c>
       <c r="C36" s="1">
-        <v>-0.15913555992141454</v>
+        <v>-0.15913555992141451</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -690,7 +807,7 @@
         <v>974</v>
       </c>
       <c r="C37" s="2">
-        <v>1.2757009345794392</v>
+        <v>1.275700934579439</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -706,7 +823,7 @@
         <v>418</v>
       </c>
       <c r="C39" s="1">
-        <v>-3.2407407407407406E-2</v>
+        <v>-3.2407407407407413E-2</v>
       </c>
     </row>
     <row r="40" spans="2:3">
@@ -730,7 +847,7 @@
         <v>949</v>
       </c>
       <c r="C42" s="1">
-        <v>-3.7525354969574036E-2</v>
+        <v>-3.7525354969574043E-2</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -746,7 +863,7 @@
         <v>763</v>
       </c>
       <c r="C44" s="2">
-        <v>1.0566037735849056</v>
+        <v>1.0566037735849061</v>
       </c>
     </row>
     <row r="45" spans="2:3">
@@ -802,7 +919,7 @@
         <v>583</v>
       </c>
       <c r="C51" s="2">
-        <v>2.3699421965317917</v>
+        <v>2.3699421965317922</v>
       </c>
     </row>
     <row r="52" spans="2:3">
@@ -810,7 +927,7 @@
         <v>739</v>
       </c>
       <c r="C52" s="2">
-        <v>0.26758147512864494</v>
+        <v>0.26758147512864489</v>
       </c>
     </row>
     <row r="53" spans="2:3">
@@ -834,7 +951,7 @@
         <v>943</v>
       </c>
       <c r="C55" s="2">
-        <v>1.7020057306590257</v>
+        <v>1.7020057306590259</v>
       </c>
     </row>
     <row r="56" spans="2:3">
@@ -858,7 +975,7 @@
         <v>765</v>
       </c>
       <c r="C58" s="2">
-        <v>0.13333333333333333</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="59" spans="2:3">
@@ -866,7 +983,7 @@
         <v>884</v>
       </c>
       <c r="C59" s="2">
-        <v>0.15555555555555556</v>
+        <v>0.15555555555555561</v>
       </c>
     </row>
     <row r="60" spans="2:3">
@@ -874,7 +991,7 @@
         <v>1066</v>
       </c>
       <c r="C60" s="2">
-        <v>0.20588235294117646</v>
+        <v>0.20588235294117649</v>
       </c>
     </row>
     <row r="61" spans="2:3">
@@ -882,7 +999,7 @@
         <v>916</v>
       </c>
       <c r="C61" s="1">
-        <v>-0.14071294559099437</v>
+        <v>-0.1407129455909944</v>
       </c>
     </row>
     <row r="62" spans="2:3">
@@ -898,7 +1015,7 @@
         <v>733</v>
       </c>
       <c r="C63" s="1">
-        <v>-0.11686746987951807</v>
+        <v>-0.1168674698795181</v>
       </c>
     </row>
     <row r="64" spans="2:3">
@@ -930,7 +1047,7 @@
         <v>685</v>
       </c>
       <c r="C67" s="2">
-        <v>0.12295081967213115</v>
+        <v>0.1229508196721311</v>
       </c>
     </row>
     <row r="68" spans="2:3">
@@ -946,7 +1063,7 @@
         <v>428</v>
       </c>
       <c r="C69" s="2">
-        <v>0.44107744107744107</v>
+        <v>0.44107744107744112</v>
       </c>
     </row>
     <row r="70" spans="2:3">
@@ -1010,7 +1127,7 @@
         <v>743</v>
       </c>
       <c r="C77" s="1">
-        <v>-0.14104046242774568</v>
+        <v>-0.14104046242774571</v>
       </c>
     </row>
     <row r="78" spans="2:3">
@@ -1026,7 +1143,7 @@
         <v>921</v>
       </c>
       <c r="C79" s="1">
-        <v>-2.9504741833508957E-2</v>
+        <v>-2.9504741833508961E-2</v>
       </c>
     </row>
     <row r="80" spans="2:3">
@@ -1050,7 +1167,7 @@
         <v>503</v>
       </c>
       <c r="C82" s="2">
-        <v>1.8258426966292134</v>
+        <v>1.8258426966292129</v>
       </c>
     </row>
     <row r="83" spans="2:3">
@@ -1066,7 +1183,7 @@
         <v>780</v>
       </c>
       <c r="C84" s="1">
-        <v>-0.15766738660907129</v>
+        <v>-0.15766738660907131</v>
       </c>
     </row>
     <row r="85" spans="2:3">
@@ -1114,7 +1231,7 @@
         <v>385</v>
       </c>
       <c r="C90" s="1">
-        <v>-0.46601941747572817</v>
+        <v>-0.46601941747572823</v>
       </c>
     </row>
     <row r="91" spans="2:3">
@@ -1122,7 +1239,7 @@
         <v>1074</v>
       </c>
       <c r="C91" s="2">
-        <v>1.7896103896103897</v>
+        <v>1.7896103896103901</v>
       </c>
     </row>
     <row r="92" spans="2:3">
@@ -1146,7 +1263,7 @@
         <v>1102</v>
       </c>
       <c r="C94" s="2">
-        <v>2.3803680981595092</v>
+        <v>2.3803680981595088</v>
       </c>
     </row>
     <row r="95" spans="2:3">
@@ -1170,7 +1287,7 @@
         <v>922</v>
       </c>
       <c r="C97" s="2">
-        <v>5.6128293241695305E-2</v>
+        <v>5.6128293241695312E-2</v>
       </c>
     </row>
     <row r="98" spans="2:3">
@@ -1178,7 +1295,7 @@
         <v>800</v>
       </c>
       <c r="C98" s="1">
-        <v>-0.13232104121475055</v>
+        <v>-0.13232104121475061</v>
       </c>
     </row>
     <row r="99" spans="2:3">
@@ -2280,6 +2397,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:H3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2290,17 +2411,17 @@
   <dimension ref="B1:C317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B318" sqref="B318"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:3">
@@ -2312,548 +2433,839 @@
       <c r="B3">
         <v>505</v>
       </c>
+      <c r="C3">
+        <v>-1.7509727626459141E-2</v>
+      </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4">
         <v>943</v>
       </c>
+      <c r="C4">
+        <v>0.86732673267326732</v>
+      </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5">
         <v>288</v>
       </c>
+      <c r="C5">
+        <v>-0.69459172852598094</v>
+      </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6">
         <v>1064</v>
       </c>
+      <c r="C6">
+        <v>2.6944444444444451</v>
+      </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7">
         <v>1047</v>
       </c>
+      <c r="C7">
+        <v>-1.5977443609022559E-2</v>
+      </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8">
         <v>1020</v>
       </c>
+      <c r="C8">
+        <v>-2.5787965616045849E-2</v>
+      </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9">
         <v>712</v>
       </c>
+      <c r="C9">
+        <v>-0.30196078431372553</v>
+      </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10">
         <v>290</v>
       </c>
+      <c r="C10">
+        <v>-0.59269662921348309</v>
+      </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11">
         <v>243</v>
       </c>
+      <c r="C11">
+        <v>-0.1620689655172414</v>
+      </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12">
         <v>895</v>
       </c>
+      <c r="C12">
+        <v>2.6831275720164611</v>
+      </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13">
         <v>928</v>
       </c>
+      <c r="C13">
+        <v>3.6871508379888271E-2</v>
+      </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14">
         <v>730</v>
       </c>
+      <c r="C14">
+        <v>-0.21336206896551721</v>
+      </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15">
         <v>572</v>
       </c>
+      <c r="C15">
+        <v>-0.21643835616438359</v>
+      </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16">
         <v>305</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="C16">
+        <v>-0.46678321678321683</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17">
         <v>839</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="C17">
+        <v>1.750819672131148</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18">
         <v>961</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
+      <c r="C18">
+        <v>0.14541120381406439</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19">
         <v>894</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
+      <c r="C19">
+        <v>-6.9719042663891784E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
       <c r="B20">
         <v>566</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
+      <c r="C20">
+        <v>-0.36689038031319909</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
       <c r="B21">
         <v>937</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
+      <c r="C21">
+        <v>0.65547703180212014</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
       <c r="B22">
         <v>1004</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22">
+        <v>7.1504802561366057E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
       <c r="B23">
         <v>1021</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
+      <c r="C23">
+        <v>1.693227091633466E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
       <c r="B24">
         <v>517</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
+      <c r="C24">
+        <v>-0.49363369245837407</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
       <c r="B25">
         <v>1023</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
+      <c r="C25">
+        <v>0.97872340425531912</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
       <c r="B26">
         <v>232</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
+      <c r="C26">
+        <v>-0.77321603128054739</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
       <c r="B27">
         <v>862</v>
       </c>
-    </row>
-    <row r="28" spans="2:2">
+      <c r="C27">
+        <v>2.7155172413793101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
       <c r="B28">
         <v>796</v>
       </c>
-    </row>
-    <row r="29" spans="2:2">
+      <c r="C28">
+        <v>-7.6566125290023199E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
       <c r="B29">
         <v>769</v>
       </c>
-    </row>
-    <row r="30" spans="2:2">
+      <c r="C29">
+        <v>-3.391959798994975E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
       <c r="B30">
         <v>969</v>
       </c>
-    </row>
-    <row r="31" spans="2:2">
+      <c r="C30">
+        <v>0.26007802340702207</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31">
         <v>1038</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31">
+        <v>7.1207430340557279E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
       <c r="B32">
         <v>1082</v>
       </c>
-    </row>
-    <row r="33" spans="2:2">
+      <c r="C32">
+        <v>4.238921001926782E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
       <c r="B33">
         <v>543</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33">
+        <v>-0.49815157116451009</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
       <c r="B34">
         <v>589</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34">
+        <v>8.4714548802946599E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
       <c r="B35">
         <v>509</v>
       </c>
-    </row>
-    <row r="36" spans="2:2">
+      <c r="C35">
+        <v>-0.1358234295415959</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
       <c r="B36">
         <v>428</v>
       </c>
-    </row>
-    <row r="37" spans="2:2">
+      <c r="C36">
+        <v>-0.15913555992141451</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
       <c r="B37">
         <v>974</v>
       </c>
-    </row>
-    <row r="38" spans="2:2">
+      <c r="C37">
+        <v>1.275700934579439</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
       <c r="B38">
         <v>432</v>
       </c>
-    </row>
-    <row r="39" spans="2:2">
+      <c r="C38">
+        <v>-0.55646817248459957</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
       <c r="B39">
         <v>418</v>
       </c>
-    </row>
-    <row r="40" spans="2:2">
+      <c r="C39">
+        <v>-3.2407407407407413E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
       <c r="B40">
         <v>656</v>
       </c>
-    </row>
-    <row r="41" spans="2:2">
+      <c r="C40">
+        <v>0.56937799043062198</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
       <c r="B41">
         <v>986</v>
       </c>
-    </row>
-    <row r="42" spans="2:2">
+      <c r="C41">
+        <v>0.50304878048780488</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
       <c r="B42">
         <v>949</v>
       </c>
-    </row>
-    <row r="43" spans="2:2">
+      <c r="C42">
+        <v>-3.7525354969574043E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
       <c r="B43">
         <v>371</v>
       </c>
-    </row>
-    <row r="44" spans="2:2">
+      <c r="C43">
+        <v>-0.60906217070600632</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
       <c r="B44">
         <v>763</v>
       </c>
-    </row>
-    <row r="45" spans="2:2">
+      <c r="C44">
+        <v>1.0566037735849061</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
       <c r="B45">
         <v>297</v>
       </c>
-    </row>
-    <row r="46" spans="2:2">
+      <c r="C45">
+        <v>-0.61074705111402361</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
       <c r="B46">
         <v>442</v>
       </c>
-    </row>
-    <row r="47" spans="2:2">
+      <c r="C46">
+        <v>0.48821548821548821</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
       <c r="B47">
         <v>560</v>
       </c>
-    </row>
-    <row r="48" spans="2:2">
+      <c r="C47">
+        <v>0.2669683257918552</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
       <c r="B48">
         <v>1031</v>
       </c>
-    </row>
-    <row r="49" spans="2:2">
+      <c r="C48">
+        <v>0.84107142857142858</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
       <c r="B49">
         <v>325</v>
       </c>
-    </row>
-    <row r="50" spans="2:2">
+      <c r="C49">
+        <v>-0.68477206595538309</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
       <c r="B50">
         <v>173</v>
       </c>
-    </row>
-    <row r="51" spans="2:2">
+      <c r="C50">
+        <v>-0.46769230769230768</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
       <c r="B51">
         <v>583</v>
       </c>
-    </row>
-    <row r="52" spans="2:2">
+      <c r="C51">
+        <v>2.3699421965317922</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
       <c r="B52">
         <v>739</v>
       </c>
-    </row>
-    <row r="53" spans="2:2">
+      <c r="C52">
+        <v>0.26758147512864489</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
       <c r="B53">
         <v>983</v>
       </c>
-    </row>
-    <row r="54" spans="2:2">
+      <c r="C53">
+        <v>0.33017591339648172</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
       <c r="B54">
         <v>349</v>
       </c>
-    </row>
-    <row r="55" spans="2:2">
+      <c r="C54">
+        <v>-0.64496439471007116</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
       <c r="B55">
         <v>943</v>
       </c>
-    </row>
-    <row r="56" spans="2:2">
+      <c r="C55">
+        <v>1.7020057306590259</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
       <c r="B56">
         <v>762</v>
       </c>
-    </row>
-    <row r="57" spans="2:2">
+      <c r="C56">
+        <v>-0.19194061505832449</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
       <c r="B57">
         <v>675</v>
       </c>
-    </row>
-    <row r="58" spans="2:2">
+      <c r="C57">
+        <v>-0.1141732283464567</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
       <c r="B58">
         <v>765</v>
       </c>
-    </row>
-    <row r="59" spans="2:2">
+      <c r="C58">
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
       <c r="B59">
         <v>884</v>
       </c>
-    </row>
-    <row r="60" spans="2:2">
+      <c r="C59">
+        <v>0.15555555555555561</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
       <c r="B60">
         <v>1066</v>
       </c>
-    </row>
-    <row r="61" spans="2:2">
+      <c r="C60">
+        <v>0.20588235294117649</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
       <c r="B61">
         <v>916</v>
       </c>
-    </row>
-    <row r="62" spans="2:2">
+      <c r="C61">
+        <v>-0.1407129455909944</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
       <c r="B62">
         <v>830</v>
       </c>
-    </row>
-    <row r="63" spans="2:2">
+      <c r="C62">
+        <v>-9.3886462882096067E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
       <c r="B63">
         <v>733</v>
       </c>
-    </row>
-    <row r="64" spans="2:2">
+      <c r="C63">
+        <v>-0.1168674698795181</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
       <c r="B64">
         <v>322</v>
       </c>
-    </row>
-    <row r="65" spans="2:2">
+      <c r="C64">
+        <v>-0.56070941336971347</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
       <c r="B65">
         <v>1007</v>
       </c>
-    </row>
-    <row r="66" spans="2:2">
+      <c r="C65">
+        <v>2.127329192546584</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
       <c r="B66">
         <v>610</v>
       </c>
-    </row>
-    <row r="67" spans="2:2">
+      <c r="C66">
+        <v>-0.394240317775571</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
       <c r="B67">
         <v>685</v>
       </c>
-    </row>
-    <row r="68" spans="2:2">
+      <c r="C67">
+        <v>0.1229508196721311</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
       <c r="B68">
         <v>297</v>
       </c>
-    </row>
-    <row r="69" spans="2:2">
+      <c r="C68">
+        <v>-0.56642335766423357</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
       <c r="B69">
         <v>428</v>
       </c>
-    </row>
-    <row r="70" spans="2:2">
+      <c r="C69">
+        <v>0.44107744107744112</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
       <c r="B70">
         <v>699</v>
       </c>
-    </row>
-    <row r="71" spans="2:2">
+      <c r="C70">
+        <v>0.63317757009345799</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
       <c r="B71">
         <v>133</v>
       </c>
-    </row>
-    <row r="72" spans="2:2">
+      <c r="C71">
+        <v>-0.80972818311874106</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
       <c r="B72">
         <v>1021</v>
       </c>
-    </row>
-    <row r="73" spans="2:2">
+      <c r="C72">
+        <v>6.6766917293233083</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
       <c r="B73">
         <v>559</v>
       </c>
-    </row>
-    <row r="74" spans="2:2">
+      <c r="C73">
+        <v>-0.45249755142017628</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
       <c r="B74">
         <v>241</v>
       </c>
-    </row>
-    <row r="75" spans="2:2">
+      <c r="C74">
+        <v>-0.56887298747763859</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
       <c r="B75">
         <v>490</v>
       </c>
-    </row>
-    <row r="76" spans="2:2">
+      <c r="C75">
+        <v>1.0331950207468881</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
       <c r="B76">
         <v>865</v>
       </c>
-    </row>
-    <row r="77" spans="2:2">
+      <c r="C76">
+        <v>0.76530612244897955</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
       <c r="B77">
         <v>743</v>
       </c>
-    </row>
-    <row r="78" spans="2:2">
+      <c r="C77">
+        <v>-0.14104046242774571</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
       <c r="B78">
         <v>949</v>
       </c>
-    </row>
-    <row r="79" spans="2:2">
+      <c r="C78">
+        <v>0.2772543741588156</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
       <c r="B79">
         <v>921</v>
       </c>
-    </row>
-    <row r="80" spans="2:2">
+      <c r="C79">
+        <v>-2.9504741833508961E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
       <c r="B80">
         <v>556</v>
       </c>
-    </row>
-    <row r="81" spans="2:2">
+      <c r="C80">
+        <v>-0.39630836047774159</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
       <c r="B81">
         <v>178</v>
       </c>
-    </row>
-    <row r="82" spans="2:2">
+      <c r="C81">
+        <v>-0.67985611510791366</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
       <c r="B82">
         <v>503</v>
       </c>
-    </row>
-    <row r="83" spans="2:2">
+      <c r="C82">
+        <v>1.8258426966292129</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
       <c r="B83">
         <v>926</v>
       </c>
-    </row>
-    <row r="84" spans="2:2">
+      <c r="C83">
+        <v>0.84095427435387671</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
       <c r="B84">
         <v>780</v>
       </c>
-    </row>
-    <row r="85" spans="2:2">
+      <c r="C84">
+        <v>-0.15766738660907131</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
       <c r="B85">
         <v>669</v>
       </c>
-    </row>
-    <row r="86" spans="2:2">
+      <c r="C85">
+        <v>-0.1423076923076923</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
       <c r="B86">
         <v>960</v>
       </c>
-    </row>
-    <row r="87" spans="2:2">
+      <c r="C86">
+        <v>0.4349775784753363</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
       <c r="B87">
         <v>327</v>
       </c>
-    </row>
-    <row r="88" spans="2:2">
+      <c r="C87">
+        <v>-0.65937500000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
       <c r="B88">
         <v>105</v>
       </c>
-    </row>
-    <row r="89" spans="2:2">
+      <c r="C88">
+        <v>-0.67889908256880738</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
       <c r="B89">
         <v>721</v>
       </c>
-    </row>
-    <row r="90" spans="2:2">
+      <c r="C89">
+        <v>5.8666666666666663</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
       <c r="B90">
         <v>385</v>
       </c>
-    </row>
-    <row r="91" spans="2:2">
+      <c r="C90">
+        <v>-0.46601941747572823</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
       <c r="B91">
         <v>1074</v>
       </c>
-    </row>
-    <row r="92" spans="2:2">
+      <c r="C91">
+        <v>1.7896103896103901</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
       <c r="B92">
         <v>721</v>
       </c>
-    </row>
-    <row r="93" spans="2:2">
+      <c r="C92">
+        <v>-0.32867783985102422</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
       <c r="B93">
         <v>326</v>
       </c>
-    </row>
-    <row r="94" spans="2:2">
+      <c r="C93">
+        <v>-0.54785020804438278</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
       <c r="B94">
         <v>1102</v>
       </c>
-    </row>
-    <row r="95" spans="2:2">
+      <c r="C94">
+        <v>2.3803680981595088</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
       <c r="B95">
         <v>162</v>
       </c>
-    </row>
-    <row r="96" spans="2:2">
+      <c r="C95">
+        <v>-0.85299455535390201</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
       <c r="B96">
         <v>873</v>
       </c>
-    </row>
-    <row r="97" spans="2:2">
+      <c r="C96">
+        <v>4.3888888888888893</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
       <c r="B97">
         <v>922</v>
       </c>
-    </row>
-    <row r="98" spans="2:2">
+      <c r="C97">
+        <v>5.6128293241695312E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
       <c r="B98">
         <v>800</v>
       </c>
-    </row>
-    <row r="99" spans="2:2">
+      <c r="C98">
+        <v>-0.13232104121475061</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
       <c r="B99">
         <v>778</v>
       </c>
-    </row>
-    <row r="100" spans="2:2">
+      <c r="C99">
+        <v>-2.75E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
       <c r="B100">
         <v>362</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="2:3">
       <c r="B101">
         <v>1055</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="2:3">
       <c r="B102">
         <v>1028</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="2:3">
       <c r="B103">
         <v>273</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="2:3">
       <c r="B104">
         <v>833</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="2:3">
       <c r="B105">
         <v>210</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="2:3">
       <c r="B106">
         <v>263</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="2:3">
       <c r="B107">
         <v>285</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="2:3">
       <c r="B108">
         <v>1091</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="2:3">
       <c r="B109">
         <v>304</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="2:3">
       <c r="B110">
         <v>176</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="2:3">
       <c r="B111">
         <v>322</v>
       </c>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" spans="2:3">
       <c r="B112">
         <v>399</v>
       </c>
@@ -3881,6 +4293,62 @@
     <row r="317" spans="2:2">
       <c r="B317">
         <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3889,15 +4357,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>